--- a/WMP26/SCE/WMP26-8_MGRA-SCE-05_Q1-CCUG-WD-Ign-jwm.xlsx
+++ b/WMP26/SCE/WMP26-8_MGRA-SCE-05_Q1-CCUG-WD-Ign-jwm.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jwm/Work/WEEDS/Calculations/Workpapers/WMP26/SCE/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{26852A1B-499B-1446-B84D-D821689CFB78}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8A3F4D8F-ABCD-F545-B9BB-FBD01092A4D2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="11700" yWindow="-20620" windowWidth="24300" windowHeight="17660" activeTab="3" xr2:uid="{7B236B09-ABB7-4B70-B063-2F30C6C73F05}"/>
+    <workbookView xWindow="-1480" yWindow="-20640" windowWidth="24300" windowHeight="17660" activeTab="4" xr2:uid="{7B236B09-ABB7-4B70-B063-2F30C6C73F05}"/>
   </bookViews>
   <sheets>
     <sheet name="README" sheetId="6" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="48">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="52">
   <si>
     <t>Bare Miles</t>
   </si>
@@ -182,6 +182,18 @@
   </si>
   <si>
     <t>Calculations</t>
+  </si>
+  <si>
+    <t>Recalculation after receipt of DRR MGRA-SCE-007-2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">This DR asked for validation of the list, and SCE provided additional ignitions. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Source of differences:  1) definition of reportable - if self-extinguished or &lt;3 ft may not be reportable, SCE reported these to CPUC. 2) 5 ignitions are not in the GIS data reported to OEIS, 3) 3 events were not in HFTD. </t>
+  </si>
+  <si>
+    <t>New calculations include SE/small fires, but not unreported or non-HFTD.</t>
   </si>
 </sst>
 </file>
@@ -255,7 +267,7 @@
     <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="19">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="right"/>
@@ -283,7 +295,6 @@
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="166" fontId="0" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="164" fontId="0" fillId="2" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="167" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -470,7 +481,7 @@
                   <c:v>3.8729666924864447E-3</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>2.5999350016249595E-3</c:v>
+                  <c:v>3.8999025024374391E-3</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -561,7 +572,7 @@
                   <c:v>5.5035773252614197E-4</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>6.4030734752681289E-4</c:v>
+                  <c:v>1.6007683688170323E-3</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1657,10 +1668,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5BFD9D7D-5AFD-3C4B-8BC5-D32E5AE45212}">
-  <dimension ref="A1:A19"/>
+  <dimension ref="A1:A24"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A20" sqref="A20"/>
+      <selection activeCell="A25" sqref="A25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -1731,7 +1742,7 @@
       </c>
     </row>
     <row r="15" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A15" s="13" t="s">
+      <c r="A15" t="s">
         <v>36</v>
       </c>
     </row>
@@ -1753,6 +1764,26 @@
     <row r="19" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
         <v>46</v>
+      </c>
+    </row>
+    <row r="21" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A21" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="22" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A22" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="23" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A23" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="24" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A24" t="s">
+        <v>51</v>
       </c>
     </row>
   </sheetData>
@@ -1765,7 +1796,7 @@
   <dimension ref="A1:H13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G12" sqref="G12"/>
+      <selection activeCell="D3" sqref="D3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -1976,59 +2007,59 @@
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A9" s="14" t="s">
+      <c r="A9" s="13" t="s">
         <v>44</v>
       </c>
-      <c r="B9" s="15">
+      <c r="B9" s="14">
         <f>B8-B5</f>
         <v>458</v>
       </c>
-      <c r="C9" s="15">
+      <c r="C9" s="14">
         <f t="shared" ref="C9:G9" si="4">C8-C5</f>
         <v>2198</v>
       </c>
-      <c r="D9" s="15">
+      <c r="D9" s="14">
         <f t="shared" si="4"/>
         <v>2566</v>
       </c>
-      <c r="E9" s="15">
+      <c r="E9" s="14">
         <f t="shared" si="4"/>
         <v>2626</v>
       </c>
-      <c r="F9" s="15">
+      <c r="F9" s="14">
         <f t="shared" si="4"/>
         <v>2615</v>
       </c>
-      <c r="G9" s="15">
+      <c r="G9" s="14">
         <f t="shared" si="4"/>
         <v>2073</v>
       </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A10" s="14" t="s">
+      <c r="A10" s="13" t="s">
         <v>40</v>
       </c>
-      <c r="B10" s="15">
+      <c r="B10" s="14">
         <f>B4-B3</f>
         <v>8952</v>
       </c>
-      <c r="C10" s="15">
+      <c r="C10" s="14">
         <f t="shared" ref="C10:G10" si="5">C5+C3</f>
         <v>7126</v>
       </c>
-      <c r="D10" s="15">
+      <c r="D10" s="14">
         <f t="shared" si="5"/>
         <v>6758</v>
       </c>
-      <c r="E10" s="15">
+      <c r="E10" s="14">
         <f t="shared" si="5"/>
         <v>6698</v>
       </c>
-      <c r="F10" s="15">
+      <c r="F10" s="14">
         <f t="shared" si="5"/>
         <v>6709</v>
       </c>
-      <c r="G10" s="15">
+      <c r="G10" s="14">
         <f t="shared" si="5"/>
         <v>7251</v>
       </c>
@@ -2355,8 +2386,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C1D84B69-2675-4BFC-98B0-B983837EC8F9}">
   <dimension ref="A1:M8"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A8" zoomScale="139" workbookViewId="0">
-      <selection activeCell="M21" sqref="M21"/>
+    <sheetView zoomScale="139" workbookViewId="0">
+      <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -2419,11 +2450,11 @@
         <v>15</v>
       </c>
       <c r="G2">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="I2">
         <f>SUM(B2:G2)</f>
-        <v>191</v>
+        <v>195</v>
       </c>
     </row>
     <row r="3" spans="1:13" x14ac:dyDescent="0.2">
@@ -2446,11 +2477,11 @@
         <v>3</v>
       </c>
       <c r="G3" s="1">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="I3">
         <f>SUM(B3:G3)</f>
-        <v>15</v>
+        <v>21</v>
       </c>
       <c r="K3">
         <f>'CL Stats'!E19</f>
@@ -2469,96 +2500,96 @@
       <c r="A4" t="s">
         <v>8</v>
       </c>
-      <c r="B4" s="17">
+      <c r="B4" s="16">
         <f>B2/'Miles Installed'!B2</f>
         <v>4.1331546023235027E-3</v>
       </c>
-      <c r="C4" s="17">
+      <c r="C4" s="16">
         <f>C2/'Miles Installed'!C2</f>
         <v>6.1311311311311309E-3</v>
       </c>
-      <c r="D4" s="17">
+      <c r="D4" s="16">
         <f>D2/'Miles Installed'!D2</f>
         <v>7.0856438693776957E-3</v>
       </c>
-      <c r="E4" s="17">
+      <c r="E4" s="16">
         <f>E2/'Miles Installed'!E2</f>
         <v>7.068525427056745E-3</v>
       </c>
-      <c r="F4" s="17">
+      <c r="F4" s="16">
         <f>F2/'Miles Installed'!F2</f>
         <v>3.8729666924864447E-3</v>
       </c>
-      <c r="G4" s="17">
+      <c r="G4" s="16">
         <f>G2/'Miles Installed'!G2</f>
-        <v>2.5999350016249595E-3</v>
-      </c>
-      <c r="I4" s="16">
+        <v>3.8999025024374391E-3</v>
+      </c>
+      <c r="I4" s="15">
         <f>B4*'Miles Installed'!B11+C4*'Miles Installed'!C11+D4*'Miles Installed'!D11+E4*'Miles Installed'!E11+F4*'Miles Installed'!F11+G4*'Miles Installed'!G11</f>
-        <v>5.3834662758251361E-3</v>
+        <v>5.4962090250570764E-3</v>
       </c>
     </row>
     <row r="5" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>9</v>
       </c>
-      <c r="B5" s="16">
+      <c r="B5" s="15">
         <f>B3/'Miles Installed'!B3</f>
         <v>0</v>
       </c>
-      <c r="C5" s="16">
+      <c r="C5" s="15">
         <f>C3/'Miles Installed'!C3</f>
         <v>7.5075075075075074E-4</v>
       </c>
-      <c r="D5" s="16">
+      <c r="D5" s="15">
         <f>D3/'Miles Installed'!D3</f>
         <v>7.0621468926553672E-4</v>
       </c>
-      <c r="E5" s="16">
+      <c r="E5" s="15">
         <f>E3/'Miles Installed'!E3</f>
         <v>1.181753722524226E-3</v>
       </c>
-      <c r="F5" s="16">
+      <c r="F5" s="15">
         <f>F3/'Miles Installed'!F3</f>
         <v>5.5035773252614197E-4</v>
       </c>
-      <c r="G5" s="16">
+      <c r="G5" s="15">
         <f>G3/'Miles Installed'!G3</f>
-        <v>6.4030734752681289E-4</v>
-      </c>
-      <c r="I5" s="16">
+        <v>1.6007683688170323E-3</v>
+      </c>
+      <c r="I5" s="15">
         <f>B5*'Miles Installed'!B12+C5*'Miles Installed'!C12+D5*'Miles Installed'!D12+E5*'Miles Installed'!E12+F5*'Miles Installed'!F12+G5*'Miles Installed'!G12</f>
-        <v>7.3295870999267037E-4</v>
+        <v>1.0261421939897386E-3</v>
       </c>
     </row>
     <row r="6" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>10</v>
       </c>
-      <c r="C6" s="18">
+      <c r="C6" s="17">
         <f t="shared" ref="C6:F6" si="0">C4/C5</f>
         <v>8.1666666666666661</v>
       </c>
-      <c r="D6" s="18">
+      <c r="D6" s="17">
         <f t="shared" si="0"/>
         <v>10.033271719038817</v>
       </c>
-      <c r="E6" s="18">
+      <c r="E6" s="17">
         <f t="shared" si="0"/>
         <v>5.9813862163754177</v>
       </c>
-      <c r="F6" s="18">
+      <c r="F6" s="17">
         <f t="shared" si="0"/>
         <v>7.0371804802478701</v>
       </c>
-      <c r="G6" s="18">
+      <c r="G6" s="17">
         <f t="shared" ref="G6" si="1">G4/G5</f>
-        <v>4.0604484887877801</v>
-      </c>
-      <c r="H6" s="18"/>
-      <c r="I6" s="18">
+        <v>2.4362690932726681</v>
+      </c>
+      <c r="H6" s="17"/>
+      <c r="I6" s="17">
         <f>I4/I5</f>
-        <v>7.3448424889840949</v>
+        <v>5.3561865570377645</v>
       </c>
     </row>
     <row r="7" spans="1:13" x14ac:dyDescent="0.2">
@@ -2583,12 +2614,12 @@
       </c>
       <c r="G7" s="2">
         <f t="shared" ref="G7" si="3">1-1/G6</f>
-        <v>0.75372178645749965</v>
+        <v>0.58953631076249935</v>
       </c>
       <c r="H7" s="2"/>
       <c r="I7" s="2">
         <f t="shared" si="2"/>
-        <v>0.86385004150874378</v>
+        <v>0.81330000563814386</v>
       </c>
       <c r="K7" s="2">
         <f>1-K3/$I$8</f>
@@ -2629,7 +2660,7 @@
       </c>
       <c r="G8">
         <f>G4*'Miles Installed'!G3</f>
-        <v>16.241793955151124</v>
+        <v>24.362690932726682</v>
       </c>
       <c r="I8">
         <f>SUM(B8:F8)</f>
@@ -2646,8 +2677,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{75736785-2C58-1B4F-972F-E9DA67535C30}">
   <dimension ref="D3:H21"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E13" sqref="E13"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E14" sqref="E14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -3023,15 +3054,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
   <documentManagement>
     <TaxCatchAll xmlns="e45da448-bf9c-43e8-8676-7e88d583ded9" xsi:nil="true"/>
@@ -3061,6 +3083,15 @@
     </SharedWithUsers>
   </documentManagement>
 </p:properties>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
@@ -3424,14 +3455,6 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{74C38C2F-7CEA-4412-9AB0-EEC50273DCAC}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{8B969AC4-AA3A-4174-AC2B-51F3DFC145CB}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
@@ -3449,6 +3472,14 @@
     <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
     <ds:schemaRef ds:uri="38b3f067-3bac-4c47-a6a5-7c76f83e9b8d"/>
     <ds:schemaRef ds:uri="0080267e-90ad-460f-9cb6-60e03307a0da"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{74C38C2F-7CEA-4412-9AB0-EEC50273DCAC}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>

--- a/WMP26/SCE/WMP26-8_MGRA-SCE-05_Q1-CCUG-WD-Ign-jwm.xlsx
+++ b/WMP26/SCE/WMP26-8_MGRA-SCE-05_Q1-CCUG-WD-Ign-jwm.xlsx
@@ -8,16 +8,17 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jwm/Work/WEEDS/Calculations/Workpapers/WMP26/SCE/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8A3F4D8F-ABCD-F545-B9BB-FBD01092A4D2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{7188F610-DD10-7F4E-A909-AA8B85E8BCA4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-1480" yWindow="-20640" windowWidth="24300" windowHeight="17660" activeTab="4" xr2:uid="{7B236B09-ABB7-4B70-B063-2F30C6C73F05}"/>
+    <workbookView xWindow="3140" yWindow="500" windowWidth="24300" windowHeight="17660" activeTab="4" xr2:uid="{7B236B09-ABB7-4B70-B063-2F30C6C73F05}"/>
   </bookViews>
   <sheets>
     <sheet name="README" sheetId="6" r:id="rId1"/>
     <sheet name="Miles Installed" sheetId="1" r:id="rId2"/>
     <sheet name="Wire Downs" sheetId="4" r:id="rId3"/>
-    <sheet name="Ignitions" sheetId="3" r:id="rId4"/>
-    <sheet name="CL Stats" sheetId="5" r:id="rId5"/>
+    <sheet name="Ignitions_current" sheetId="3" r:id="rId4"/>
+    <sheet name="Ignitions_SCE_DR6-7" sheetId="7" r:id="rId5"/>
+    <sheet name="CL Stats" sheetId="5" r:id="rId6"/>
   </sheets>
   <calcPr calcId="191028"/>
   <extLst>
@@ -38,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="52">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="53">
   <si>
     <t>Bare Miles</t>
   </si>
@@ -194,6 +195,9 @@
   </si>
   <si>
     <t>New calculations include SE/small fires, but not unreported or non-HFTD.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Tab Ignitions_SCE_DR6-7 applies SCE's 2024 methodology to historical ignitions for its HFRA. </t>
   </si>
 </sst>
 </file>
@@ -364,6 +368,18 @@
               <a:rPr lang="en-US"/>
               <a:t>Ignition Rates (per mile per year) for Bare Wire and Covered Conductor</a:t>
             </a:r>
+            <a:br>
+              <a:rPr lang="en-US"/>
+            </a:br>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>2023</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" baseline="0"/>
+              <a:t> Data + GIS Updates</a:t>
+            </a:r>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:rich>
       </c:tx>
@@ -434,7 +450,7 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>Ignitions!$B$1:$G$1</c:f>
+              <c:f>Ignitions_current!$B$1:$G$1</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="6"/>
@@ -461,7 +477,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Ignitions!$B$4:$G$4</c:f>
+              <c:f>Ignitions_current!$B$4:$G$4</c:f>
               <c:numCache>
                 <c:formatCode>0.0000</c:formatCode>
                 <c:ptCount val="6"/>
@@ -525,7 +541,7 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>Ignitions!$B$1:$G$1</c:f>
+              <c:f>Ignitions_current!$B$1:$G$1</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="6"/>
@@ -552,7 +568,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Ignitions!$B$5:$G$5</c:f>
+              <c:f>Ignitions_current!$B$5:$G$5</c:f>
               <c:numCache>
                 <c:formatCode>0.00000</c:formatCode>
                 <c:ptCount val="6"/>
@@ -581,6 +597,494 @@
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000002-F2FB-6E44-B823-F46636AE6336}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:marker val="1"/>
+        <c:smooth val="0"/>
+        <c:axId val="1504094704"/>
+        <c:axId val="1382615056"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="1504094704"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1382615056"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="1382615056"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="0.0000" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1504094704"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="tr"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US" sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:sysClr val="windowText" lastClr="000000">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:sysClr>
+                </a:solidFill>
+              </a:rPr>
+              <a:t>SCE Ignition Rates (per mile per year) for Bare Wire and Covered Conductor </a:t>
+            </a:r>
+            <a:br>
+              <a:rPr lang="en-US" sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:sysClr val="windowText" lastClr="000000">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:sysClr>
+                </a:solidFill>
+              </a:rPr>
+            </a:br>
+            <a:r>
+              <a:rPr lang="en-US" sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:sysClr val="windowText" lastClr="000000">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:sysClr>
+                </a:solidFill>
+              </a:rPr>
+              <a:t>2024 SCE Re-Estimation</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:v>Bare Wire Ignition Rate</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>'Ignitions_SCE_DR6-7'!$B$1:$G$1</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>2019</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2020</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2021</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2022</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2023</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2024</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Ignitions_SCE_DR6-7'!$B$4:$G$4</c:f>
+              <c:numCache>
+                <c:formatCode>0.0000</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>4.2448614834673815E-3</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>3.8788788788788791E-3</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3.8508934072704866E-3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4.5160023561751422E-3</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2.3237800154918666E-3</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>5.1998700032499191E-3</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-C46C-834A-973D-B841E4B87EEB}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:v>CC Ignition Rate</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent3"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>'Ignitions_SCE_DR6-7'!$B$1:$G$1</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>2019</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2020</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2021</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2022</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2023</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2024</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Ignitions_SCE_DR6-7'!$B$5:$G$5</c:f>
+              <c:numCache>
+                <c:formatCode>0.00000</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>7.5075075075075074E-4</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>7.0621468926553672E-4</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>7.0905223351453556E-4</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>3.6690515501742798E-4</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2.0809988794621417E-3</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-C46C-834A-973D-B841E4B87EEB}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -827,7 +1331,550 @@
 </cs:colorStyle>
 </file>
 
+<file path=xl/charts/colors2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
 <file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="332">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="332">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
@@ -1355,6 +2402,49 @@
           </a:extLst>
         </xdr:cNvPr>
         <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>2781300</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>356331</xdr:colOff>
+      <xdr:row>33</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Chart 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{DEA37DA6-2CDD-EB4C-840F-8ED0DE7830B2}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
         <a:off x="0" y="0"/>
@@ -1668,10 +2758,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5BFD9D7D-5AFD-3C4B-8BC5-D32E5AE45212}">
-  <dimension ref="A1:A24"/>
+  <dimension ref="A1:A26"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A25" sqref="A25"/>
+      <selection activeCell="A26" sqref="A26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -1784,6 +2874,11 @@
     <row r="24" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
         <v>51</v>
+      </c>
+    </row>
+    <row r="26" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A26" t="s">
+        <v>52</v>
       </c>
     </row>
   </sheetData>
@@ -2386,8 +3481,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C1D84B69-2675-4BFC-98B0-B983837EC8F9}">
   <dimension ref="A1:M8"/>
   <sheetViews>
-    <sheetView zoomScale="139" workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
+    <sheetView topLeftCell="B1" zoomScale="139" workbookViewId="0">
+      <selection activeCell="M19" sqref="M19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -2484,16 +3579,16 @@
         <v>21</v>
       </c>
       <c r="K3">
-        <f>'CL Stats'!E19</f>
-        <v>23.097129760139236</v>
+        <f>'CL Stats'!E25</f>
+        <v>30.240443291168226</v>
       </c>
       <c r="L3">
-        <f>'CL Stats'!F19</f>
-        <v>21.292372541490419</v>
+        <f>'CL Stats'!F25</f>
+        <v>28.184270362559378</v>
       </c>
       <c r="M3">
-        <f>'CL Stats'!G19</f>
-        <v>17.589410850076604</v>
+        <f>'CL Stats'!G25</f>
+        <v>23.915272894462007</v>
       </c>
     </row>
     <row r="4" spans="1:13" x14ac:dyDescent="0.2">
@@ -2623,15 +3718,15 @@
       </c>
       <c r="K7" s="2">
         <f>1-K3/$I$8</f>
-        <v>0.71410627725020548</v>
+        <v>0.62568713082971339</v>
       </c>
       <c r="L7" s="2">
         <f t="shared" ref="L7:M7" si="4">1-L3/$I$8</f>
-        <v>0.73644536289666229</v>
+        <v>0.65113821238322434</v>
       </c>
       <c r="M7" s="2">
         <f t="shared" si="4"/>
-        <v>0.78228021398647962</v>
+        <v>0.70397939183878144</v>
       </c>
     </row>
     <row r="8" spans="1:13" x14ac:dyDescent="0.2">
@@ -2674,11 +3769,269 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{76EE443D-E972-474C-8F35-410F39AA15A4}">
+  <dimension ref="A1:I8"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A18" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
+      <selection activeCell="A36" sqref="A36"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="37.33203125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:9" ht="32" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>47</v>
+      </c>
+      <c r="B1">
+        <v>2019</v>
+      </c>
+      <c r="C1">
+        <v>2020</v>
+      </c>
+      <c r="D1">
+        <v>2021</v>
+      </c>
+      <c r="E1">
+        <v>2022</v>
+      </c>
+      <c r="F1">
+        <v>2023</v>
+      </c>
+      <c r="G1">
+        <v>2024</v>
+      </c>
+      <c r="I1" s="3" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B2">
+        <v>38</v>
+      </c>
+      <c r="C2">
+        <v>31</v>
+      </c>
+      <c r="D2">
+        <v>25</v>
+      </c>
+      <c r="E2">
+        <v>23</v>
+      </c>
+      <c r="F2">
+        <v>9</v>
+      </c>
+      <c r="G2">
+        <v>16</v>
+      </c>
+      <c r="I2">
+        <f>SUM(B2:G2)</f>
+        <v>142</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3">
+        <v>0</v>
+      </c>
+      <c r="C3">
+        <v>1</v>
+      </c>
+      <c r="D3">
+        <v>2</v>
+      </c>
+      <c r="E3">
+        <v>3</v>
+      </c>
+      <c r="F3" s="1">
+        <v>2</v>
+      </c>
+      <c r="G3" s="1">
+        <v>13</v>
+      </c>
+      <c r="I3">
+        <f>SUM(B3:G3)</f>
+        <v>21</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
+        <v>8</v>
+      </c>
+      <c r="B4" s="16">
+        <f>B2/'Miles Installed'!B2</f>
+        <v>4.2448614834673815E-3</v>
+      </c>
+      <c r="C4" s="16">
+        <f>C2/'Miles Installed'!C2</f>
+        <v>3.8788788788788791E-3</v>
+      </c>
+      <c r="D4" s="16">
+        <f>D2/'Miles Installed'!D2</f>
+        <v>3.8508934072704866E-3</v>
+      </c>
+      <c r="E4" s="16">
+        <f>E2/'Miles Installed'!E2</f>
+        <v>4.5160023561751422E-3</v>
+      </c>
+      <c r="F4" s="16">
+        <f>F2/'Miles Installed'!F2</f>
+        <v>2.3237800154918666E-3</v>
+      </c>
+      <c r="G4" s="16">
+        <f>G2/'Miles Installed'!G2</f>
+        <v>5.1998700032499191E-3</v>
+      </c>
+      <c r="I4" s="15">
+        <f>B4*'Miles Installed'!B11+C4*'Miles Installed'!C11+D4*'Miles Installed'!D11+E4*'Miles Installed'!E11+F4*'Miles Installed'!F11+G4*'Miles Installed'!G11</f>
+        <v>4.0023675977338708E-3</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
+        <v>9</v>
+      </c>
+      <c r="B5" s="15">
+        <f>B3/'Miles Installed'!B3</f>
+        <v>0</v>
+      </c>
+      <c r="C5" s="15">
+        <f>C3/'Miles Installed'!C3</f>
+        <v>7.5075075075075074E-4</v>
+      </c>
+      <c r="D5" s="15">
+        <f>D3/'Miles Installed'!D3</f>
+        <v>7.0621468926553672E-4</v>
+      </c>
+      <c r="E5" s="15">
+        <f>E3/'Miles Installed'!E3</f>
+        <v>7.0905223351453556E-4</v>
+      </c>
+      <c r="F5" s="15">
+        <f>F3/'Miles Installed'!F3</f>
+        <v>3.6690515501742798E-4</v>
+      </c>
+      <c r="G5" s="15">
+        <f>G3/'Miles Installed'!G3</f>
+        <v>2.0809988794621417E-3</v>
+      </c>
+      <c r="I5" s="15">
+        <f>B5*'Miles Installed'!B12+C5*'Miles Installed'!C12+D5*'Miles Installed'!D12+E5*'Miles Installed'!E12+F5*'Miles Installed'!F12+G5*'Miles Installed'!G12</f>
+        <v>1.0261421939897384E-3</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A6" t="s">
+        <v>10</v>
+      </c>
+      <c r="C6" s="17">
+        <f t="shared" ref="C6:G6" si="0">C4/C5</f>
+        <v>5.166666666666667</v>
+      </c>
+      <c r="D6" s="17">
+        <f t="shared" si="0"/>
+        <v>5.4528650646950094</v>
+      </c>
+      <c r="E6" s="17">
+        <f t="shared" si="0"/>
+        <v>6.369068656325676</v>
+      </c>
+      <c r="F6" s="17">
+        <f t="shared" si="0"/>
+        <v>6.333462432223083</v>
+      </c>
+      <c r="G6" s="17">
+        <f t="shared" si="0"/>
+        <v>2.4987375315617113</v>
+      </c>
+      <c r="H6" s="17"/>
+      <c r="I6" s="17">
+        <f>I4/I5</f>
+        <v>3.9004025184582707</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A7" t="s">
+        <v>14</v>
+      </c>
+      <c r="C7" s="2">
+        <f>1-1/C6</f>
+        <v>0.80645161290322576</v>
+      </c>
+      <c r="D7" s="2">
+        <f t="shared" ref="D7:I7" si="1">1-1/D6</f>
+        <v>0.81661016949152543</v>
+      </c>
+      <c r="E7" s="2">
+        <f t="shared" si="1"/>
+        <v>0.84299117281349867</v>
+      </c>
+      <c r="F7" s="2">
+        <f t="shared" si="1"/>
+        <v>0.84210848162416685</v>
+      </c>
+      <c r="G7" s="2">
+        <f t="shared" si="1"/>
+        <v>0.59979790299343683</v>
+      </c>
+      <c r="H7" s="2"/>
+      <c r="I7" s="2">
+        <f t="shared" si="1"/>
+        <v>0.74361620492562031</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A8" t="s">
+        <v>13</v>
+      </c>
+      <c r="B8">
+        <f>B4*'Miles Installed'!B3</f>
+        <v>1.5790884718498659</v>
+      </c>
+      <c r="C8">
+        <f>C4*'Miles Installed'!C3</f>
+        <v>5.166666666666667</v>
+      </c>
+      <c r="D8">
+        <f>D4*'Miles Installed'!D3</f>
+        <v>10.905730129390019</v>
+      </c>
+      <c r="E8">
+        <f>E4*'Miles Installed'!E3</f>
+        <v>19.107205968977027</v>
+      </c>
+      <c r="F8">
+        <f>F4*'Miles Installed'!F3</f>
+        <v>12.666924864446164</v>
+      </c>
+      <c r="G8">
+        <f>G4*'Miles Installed'!G3</f>
+        <v>32.483587910302248</v>
+      </c>
+      <c r="I8">
+        <f>SUM(B8:F8)</f>
+        <v>49.425616101329744</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{75736785-2C58-1B4F-972F-E9DA67535C30}">
-  <dimension ref="D3:H21"/>
+  <dimension ref="D3:H26"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E14" sqref="E14"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E25" sqref="E25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -2735,11 +4088,11 @@
         <v>4.7438645183905788</v>
       </c>
       <c r="F5" s="5">
-        <f t="shared" ref="F5:F21" si="0">_xlfn.CHISQ.INV.RT(0.1,2*($D5+1))/2</f>
+        <f t="shared" ref="F5:F26" si="0">_xlfn.CHISQ.INV.RT(0.1,2*($D5+1))/2</f>
         <v>3.8897201698674291</v>
       </c>
       <c r="G5" s="5">
-        <f t="shared" ref="G5:G21" si="1">_xlfn.CHISQ.INV.RT(0.32,2*($D5+1))/2</f>
+        <f t="shared" ref="G5:G26" si="1">_xlfn.CHISQ.INV.RT(0.32,2*($D5+1))/2</f>
         <v>2.3477111595614959</v>
       </c>
       <c r="H5" s="6"/>
@@ -2765,7 +4118,7 @@
     </row>
     <row r="7" spans="4:8" x14ac:dyDescent="0.2">
       <c r="D7" s="5">
-        <f t="shared" ref="D7:D21" si="2">D6+1</f>
+        <f t="shared" ref="D7:D26" si="2">D6+1</f>
         <v>3</v>
       </c>
       <c r="E7" s="5">
@@ -3047,6 +4400,96 @@
         <v>19.704036518462619</v>
       </c>
       <c r="H21" s="6"/>
+    </row>
+    <row r="22" spans="4:8" x14ac:dyDescent="0.2">
+      <c r="D22" s="5">
+        <f t="shared" si="2"/>
+        <v>18</v>
+      </c>
+      <c r="E22" s="5">
+        <f t="shared" ref="E22:E26" si="5">_xlfn.CHISQ.INV.RT(0.05,2*(D22+1))/2</f>
+        <v>26.69177031148465</v>
+      </c>
+      <c r="F22" s="5">
+        <f t="shared" si="0"/>
+        <v>24.75628991328778</v>
+      </c>
+      <c r="G22" s="5">
+        <f t="shared" si="1"/>
+        <v>20.758915051474588</v>
+      </c>
+    </row>
+    <row r="23" spans="4:8" x14ac:dyDescent="0.2">
+      <c r="D23" s="5">
+        <f t="shared" si="2"/>
+        <v>19</v>
+      </c>
+      <c r="E23" s="5">
+        <f t="shared" si="5"/>
+        <v>27.879239639443515</v>
+      </c>
+      <c r="F23" s="5">
+        <f t="shared" si="0"/>
+        <v>25.902528606658759</v>
+      </c>
+      <c r="G23" s="5">
+        <f t="shared" si="1"/>
+        <v>21.812343381675195</v>
+      </c>
+    </row>
+    <row r="24" spans="4:8" x14ac:dyDescent="0.2">
+      <c r="D24" s="5">
+        <f t="shared" si="2"/>
+        <v>20</v>
+      </c>
+      <c r="E24" s="5">
+        <f t="shared" si="5"/>
+        <v>29.062018840434014</v>
+      </c>
+      <c r="F24" s="5">
+        <f t="shared" si="0"/>
+        <v>27.045101225356202</v>
+      </c>
+      <c r="G24" s="5">
+        <f t="shared" si="1"/>
+        <v>22.864430630478243</v>
+      </c>
+    </row>
+    <row r="25" spans="4:8" x14ac:dyDescent="0.2">
+      <c r="D25" s="5">
+        <f t="shared" si="2"/>
+        <v>21</v>
+      </c>
+      <c r="E25" s="5">
+        <f t="shared" si="5"/>
+        <v>30.240443291168226</v>
+      </c>
+      <c r="F25" s="5">
+        <f t="shared" si="0"/>
+        <v>28.184270362559378</v>
+      </c>
+      <c r="G25" s="5">
+        <f t="shared" si="1"/>
+        <v>23.915272894462007</v>
+      </c>
+    </row>
+    <row r="26" spans="4:8" x14ac:dyDescent="0.2">
+      <c r="D26" s="5">
+        <f t="shared" si="2"/>
+        <v>22</v>
+      </c>
+      <c r="E26" s="5">
+        <f t="shared" si="5"/>
+        <v>31.414810205704089</v>
+      </c>
+      <c r="F26" s="5">
+        <f t="shared" si="0"/>
+        <v>29.320268687895858</v>
+      </c>
+      <c r="G26" s="5">
+        <f t="shared" si="1"/>
+        <v>24.964955321935019</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -3054,38 +4497,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <TaxCatchAll xmlns="e45da448-bf9c-43e8-8676-7e88d583ded9" xsi:nil="true"/>
-    <Response_x0020_Date xmlns="38b3f067-3bac-4c47-a6a5-7c76f83e9b8d">2024-01-22T08:00:00+00:00</Response_x0020_Date>
-    <Received_x0020_Date xmlns="38b3f067-3bac-4c47-a6a5-7c76f83e9b8d">2024-01-05T08:00:00+00:00</Received_x0020_Date>
-    <Proceeding_x0020_Number xmlns="38b3f067-3bac-4c47-a6a5-7c76f83e9b8d">A.23-05-010</Proceeding_x0020_Number>
-    <Party xmlns="38b3f067-3bac-4c47-a6a5-7c76f83e9b8d">MGRA</Party>
-    <lcf76f155ced4ddcb4097134ff3c332f xmlns="38b3f067-3bac-4c47-a6a5-7c76f83e9b8d">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </lcf76f155ced4ddcb4097134ff3c332f>
-    <Source_x0020_ID xmlns="38b3f067-3bac-4c47-a6a5-7c76f83e9b8d">324633</Source_x0020_ID>
-    <RcmsModDate xmlns="38b3f067-3bac-4c47-a6a5-7c76f83e9b8d">1/22/2024 6:17 PM</RcmsModDate>
-    <Friendly_x0020_Name xmlns="38b3f067-3bac-4c47-a6a5-7c76f83e9b8d" xsi:nil="true"/>
-    <Data_x0020_Request_x0020_Set xmlns="38b3f067-3bac-4c47-a6a5-7c76f83e9b8d" xsi:nil="true"/>
-    <Description0 xmlns="38b3f067-3bac-4c47-a6a5-7c76f83e9b8d" xsi:nil="true"/>
-    <Proceeding xmlns="38b3f067-3bac-4c47-a6a5-7c76f83e9b8d" xsi:nil="true"/>
-    <Response_x0020_Document_x0020_Type xmlns="38b3f067-3bac-4c47-a6a5-7c76f83e9b8d">Attachment</Response_x0020_Document_x0020_Type>
-    <PublicURL xmlns="38b3f067-3bac-4c47-a6a5-7c76f83e9b8d">https://edisonintl.sharepoint.com/:x:/t/Public/regpublic/EYaaIpz8h-dBrgNSJgLdxZcBrLDNPp5p0r1PCg1GdS_ihw</PublicURL>
-    <Questions xmlns="38b3f067-3bac-4c47-a6a5-7c76f83e9b8d">2-1.a-f</Questions>
-    <Access_x0020_Classification xmlns="38b3f067-3bac-4c47-a6a5-7c76f83e9b8d">Public</Access_x0020_Classification>
-    <SharedWithUsers xmlns="0080267e-90ad-460f-9cb6-60e03307a0da">
-      <UserInfo>
-        <DisplayName/>
-        <AccountId xsi:nil="true"/>
-        <AccountType/>
-      </UserInfo>
-    </SharedWithUsers>
-  </documentManagement>
-</p:properties>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <?mso-contentType ?>
 <FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
   <Display>DocumentLibraryForm</Display>
@@ -3094,7 +4505,7 @@
 </FormTemplates>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100F80E8443A091C6489C59EDF60B52CCAF" ma:contentTypeVersion="35" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="283482aaba29cec93de82bd38decaa67">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="38b3f067-3bac-4c47-a6a5-7c76f83e9b8d" xmlns:ns3="e45da448-bf9c-43e8-8676-7e88d583ded9" xmlns:ns4="0080267e-90ad-460f-9cb6-60e03307a0da" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="b99c9bd826a5ff60ac9864a0c3f563f7" ns2:_="" ns3:_="" ns4:_="">
     <xsd:import namespace="38b3f067-3bac-4c47-a6a5-7c76f83e9b8d"/>
@@ -3454,7 +4865,67 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <TaxCatchAll xmlns="e45da448-bf9c-43e8-8676-7e88d583ded9" xsi:nil="true"/>
+    <Response_x0020_Date xmlns="38b3f067-3bac-4c47-a6a5-7c76f83e9b8d">2024-01-22T08:00:00+00:00</Response_x0020_Date>
+    <Received_x0020_Date xmlns="38b3f067-3bac-4c47-a6a5-7c76f83e9b8d">2024-01-05T08:00:00+00:00</Received_x0020_Date>
+    <Proceeding_x0020_Number xmlns="38b3f067-3bac-4c47-a6a5-7c76f83e9b8d">A.23-05-010</Proceeding_x0020_Number>
+    <Party xmlns="38b3f067-3bac-4c47-a6a5-7c76f83e9b8d">MGRA</Party>
+    <lcf76f155ced4ddcb4097134ff3c332f xmlns="38b3f067-3bac-4c47-a6a5-7c76f83e9b8d">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </lcf76f155ced4ddcb4097134ff3c332f>
+    <Source_x0020_ID xmlns="38b3f067-3bac-4c47-a6a5-7c76f83e9b8d">324633</Source_x0020_ID>
+    <RcmsModDate xmlns="38b3f067-3bac-4c47-a6a5-7c76f83e9b8d">1/22/2024 6:17 PM</RcmsModDate>
+    <Friendly_x0020_Name xmlns="38b3f067-3bac-4c47-a6a5-7c76f83e9b8d" xsi:nil="true"/>
+    <Data_x0020_Request_x0020_Set xmlns="38b3f067-3bac-4c47-a6a5-7c76f83e9b8d" xsi:nil="true"/>
+    <Description0 xmlns="38b3f067-3bac-4c47-a6a5-7c76f83e9b8d" xsi:nil="true"/>
+    <Proceeding xmlns="38b3f067-3bac-4c47-a6a5-7c76f83e9b8d" xsi:nil="true"/>
+    <Response_x0020_Document_x0020_Type xmlns="38b3f067-3bac-4c47-a6a5-7c76f83e9b8d">Attachment</Response_x0020_Document_x0020_Type>
+    <PublicURL xmlns="38b3f067-3bac-4c47-a6a5-7c76f83e9b8d">https://edisonintl.sharepoint.com/:x:/t/Public/regpublic/EYaaIpz8h-dBrgNSJgLdxZcBrLDNPp5p0r1PCg1GdS_ihw</PublicURL>
+    <Questions xmlns="38b3f067-3bac-4c47-a6a5-7c76f83e9b8d">2-1.a-f</Questions>
+    <Access_x0020_Classification xmlns="38b3f067-3bac-4c47-a6a5-7c76f83e9b8d">Public</Access_x0020_Classification>
+    <SharedWithUsers xmlns="0080267e-90ad-460f-9cb6-60e03307a0da">
+      <UserInfo>
+        <DisplayName/>
+        <AccountId xsi:nil="true"/>
+        <AccountType/>
+      </UserInfo>
+    </SharedWithUsers>
+  </documentManagement>
+</p:properties>
+</file>
+
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{74C38C2F-7CEA-4412-9AB0-EEC50273DCAC}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{02B0CFAA-35EE-4A2B-99BF-3F85903EFDFF}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="38b3f067-3bac-4c47-a6a5-7c76f83e9b8d"/>
+    <ds:schemaRef ds:uri="e45da448-bf9c-43e8-8676-7e88d583ded9"/>
+    <ds:schemaRef ds:uri="0080267e-90ad-460f-9cb6-60e03307a0da"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{8B969AC4-AA3A-4174-AC2B-51F3DFC145CB}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
@@ -3474,32 +4945,4 @@
     <ds:schemaRef ds:uri="0080267e-90ad-460f-9cb6-60e03307a0da"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{74C38C2F-7CEA-4412-9AB0-EEC50273DCAC}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{02B0CFAA-35EE-4A2B-99BF-3F85903EFDFF}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="38b3f067-3bac-4c47-a6a5-7c76f83e9b8d"/>
-    <ds:schemaRef ds:uri="e45da448-bf9c-43e8-8676-7e88d583ded9"/>
-    <ds:schemaRef ds:uri="0080267e-90ad-460f-9cb6-60e03307a0da"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>
--- a/WMP26/SCE/WMP26-8_MGRA-SCE-05_Q1-CCUG-WD-Ign-jwm.xlsx
+++ b/WMP26/SCE/WMP26-8_MGRA-SCE-05_Q1-CCUG-WD-Ign-jwm.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jwm/Work/WEEDS/Calculations/Workpapers/WMP26/SCE/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{7188F610-DD10-7F4E-A909-AA8B85E8BCA4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{5CD60873-194C-E844-B8DA-DAA1C8B4593D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="3140" yWindow="500" windowWidth="24300" windowHeight="17660" activeTab="4" xr2:uid="{7B236B09-ABB7-4B70-B063-2F30C6C73F05}"/>
   </bookViews>
@@ -4497,6 +4497,38 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <TaxCatchAll xmlns="e45da448-bf9c-43e8-8676-7e88d583ded9" xsi:nil="true"/>
+    <Response_x0020_Date xmlns="38b3f067-3bac-4c47-a6a5-7c76f83e9b8d">2024-01-22T08:00:00+00:00</Response_x0020_Date>
+    <Received_x0020_Date xmlns="38b3f067-3bac-4c47-a6a5-7c76f83e9b8d">2024-01-05T08:00:00+00:00</Received_x0020_Date>
+    <Proceeding_x0020_Number xmlns="38b3f067-3bac-4c47-a6a5-7c76f83e9b8d">A.23-05-010</Proceeding_x0020_Number>
+    <Party xmlns="38b3f067-3bac-4c47-a6a5-7c76f83e9b8d">MGRA</Party>
+    <lcf76f155ced4ddcb4097134ff3c332f xmlns="38b3f067-3bac-4c47-a6a5-7c76f83e9b8d">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </lcf76f155ced4ddcb4097134ff3c332f>
+    <Source_x0020_ID xmlns="38b3f067-3bac-4c47-a6a5-7c76f83e9b8d">324633</Source_x0020_ID>
+    <RcmsModDate xmlns="38b3f067-3bac-4c47-a6a5-7c76f83e9b8d">1/22/2024 6:17 PM</RcmsModDate>
+    <Friendly_x0020_Name xmlns="38b3f067-3bac-4c47-a6a5-7c76f83e9b8d" xsi:nil="true"/>
+    <Data_x0020_Request_x0020_Set xmlns="38b3f067-3bac-4c47-a6a5-7c76f83e9b8d" xsi:nil="true"/>
+    <Description0 xmlns="38b3f067-3bac-4c47-a6a5-7c76f83e9b8d" xsi:nil="true"/>
+    <Proceeding xmlns="38b3f067-3bac-4c47-a6a5-7c76f83e9b8d" xsi:nil="true"/>
+    <Response_x0020_Document_x0020_Type xmlns="38b3f067-3bac-4c47-a6a5-7c76f83e9b8d">Attachment</Response_x0020_Document_x0020_Type>
+    <PublicURL xmlns="38b3f067-3bac-4c47-a6a5-7c76f83e9b8d">https://edisonintl.sharepoint.com/:x:/t/Public/regpublic/EYaaIpz8h-dBrgNSJgLdxZcBrLDNPp5p0r1PCg1GdS_ihw</PublicURL>
+    <Questions xmlns="38b3f067-3bac-4c47-a6a5-7c76f83e9b8d">2-1.a-f</Questions>
+    <Access_x0020_Classification xmlns="38b3f067-3bac-4c47-a6a5-7c76f83e9b8d">Public</Access_x0020_Classification>
+    <SharedWithUsers xmlns="0080267e-90ad-460f-9cb6-60e03307a0da">
+      <UserInfo>
+        <DisplayName/>
+        <AccountId xsi:nil="true"/>
+        <AccountType/>
+      </UserInfo>
+    </SharedWithUsers>
+  </documentManagement>
+</p:properties>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <?mso-contentType ?>
 <FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
   <Display>DocumentLibraryForm</Display>
@@ -4505,7 +4537,7 @@
 </FormTemplates>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100F80E8443A091C6489C59EDF60B52CCAF" ma:contentTypeVersion="35" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="283482aaba29cec93de82bd38decaa67">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="38b3f067-3bac-4c47-a6a5-7c76f83e9b8d" xmlns:ns3="e45da448-bf9c-43e8-8676-7e88d583ded9" xmlns:ns4="0080267e-90ad-460f-9cb6-60e03307a0da" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="b99c9bd826a5ff60ac9864a0c3f563f7" ns2:_="" ns3:_="" ns4:_="">
     <xsd:import namespace="38b3f067-3bac-4c47-a6a5-7c76f83e9b8d"/>
@@ -4865,67 +4897,7 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <TaxCatchAll xmlns="e45da448-bf9c-43e8-8676-7e88d583ded9" xsi:nil="true"/>
-    <Response_x0020_Date xmlns="38b3f067-3bac-4c47-a6a5-7c76f83e9b8d">2024-01-22T08:00:00+00:00</Response_x0020_Date>
-    <Received_x0020_Date xmlns="38b3f067-3bac-4c47-a6a5-7c76f83e9b8d">2024-01-05T08:00:00+00:00</Received_x0020_Date>
-    <Proceeding_x0020_Number xmlns="38b3f067-3bac-4c47-a6a5-7c76f83e9b8d">A.23-05-010</Proceeding_x0020_Number>
-    <Party xmlns="38b3f067-3bac-4c47-a6a5-7c76f83e9b8d">MGRA</Party>
-    <lcf76f155ced4ddcb4097134ff3c332f xmlns="38b3f067-3bac-4c47-a6a5-7c76f83e9b8d">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </lcf76f155ced4ddcb4097134ff3c332f>
-    <Source_x0020_ID xmlns="38b3f067-3bac-4c47-a6a5-7c76f83e9b8d">324633</Source_x0020_ID>
-    <RcmsModDate xmlns="38b3f067-3bac-4c47-a6a5-7c76f83e9b8d">1/22/2024 6:17 PM</RcmsModDate>
-    <Friendly_x0020_Name xmlns="38b3f067-3bac-4c47-a6a5-7c76f83e9b8d" xsi:nil="true"/>
-    <Data_x0020_Request_x0020_Set xmlns="38b3f067-3bac-4c47-a6a5-7c76f83e9b8d" xsi:nil="true"/>
-    <Description0 xmlns="38b3f067-3bac-4c47-a6a5-7c76f83e9b8d" xsi:nil="true"/>
-    <Proceeding xmlns="38b3f067-3bac-4c47-a6a5-7c76f83e9b8d" xsi:nil="true"/>
-    <Response_x0020_Document_x0020_Type xmlns="38b3f067-3bac-4c47-a6a5-7c76f83e9b8d">Attachment</Response_x0020_Document_x0020_Type>
-    <PublicURL xmlns="38b3f067-3bac-4c47-a6a5-7c76f83e9b8d">https://edisonintl.sharepoint.com/:x:/t/Public/regpublic/EYaaIpz8h-dBrgNSJgLdxZcBrLDNPp5p0r1PCg1GdS_ihw</PublicURL>
-    <Questions xmlns="38b3f067-3bac-4c47-a6a5-7c76f83e9b8d">2-1.a-f</Questions>
-    <Access_x0020_Classification xmlns="38b3f067-3bac-4c47-a6a5-7c76f83e9b8d">Public</Access_x0020_Classification>
-    <SharedWithUsers xmlns="0080267e-90ad-460f-9cb6-60e03307a0da">
-      <UserInfo>
-        <DisplayName/>
-        <AccountId xsi:nil="true"/>
-        <AccountType/>
-      </UserInfo>
-    </SharedWithUsers>
-  </documentManagement>
-</p:properties>
-</file>
-
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{74C38C2F-7CEA-4412-9AB0-EEC50273DCAC}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{02B0CFAA-35EE-4A2B-99BF-3F85903EFDFF}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="38b3f067-3bac-4c47-a6a5-7c76f83e9b8d"/>
-    <ds:schemaRef ds:uri="e45da448-bf9c-43e8-8676-7e88d583ded9"/>
-    <ds:schemaRef ds:uri="0080267e-90ad-460f-9cb6-60e03307a0da"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{8B969AC4-AA3A-4174-AC2B-51F3DFC145CB}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
@@ -4945,4 +4917,32 @@
     <ds:schemaRef ds:uri="0080267e-90ad-460f-9cb6-60e03307a0da"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{74C38C2F-7CEA-4412-9AB0-EEC50273DCAC}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{02B0CFAA-35EE-4A2B-99BF-3F85903EFDFF}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="38b3f067-3bac-4c47-a6a5-7c76f83e9b8d"/>
+    <ds:schemaRef ds:uri="e45da448-bf9c-43e8-8676-7e88d583ded9"/>
+    <ds:schemaRef ds:uri="0080267e-90ad-460f-9cb6-60e03307a0da"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>